--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/대도서관 6,7월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/대도서관 6,7월 영상 카테고리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\모멘트 시트 및 정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최저 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평균 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,19 +193,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42,259</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>48,951</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>71,660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146,853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214,980</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -296,10 +296,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,7 +586,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,16 +605,16 @@
         <v>200716</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1"/>
       <c r="O1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -633,22 +633,22 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -694,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -708,29 +708,29 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="P5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -760,10 +760,10 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="P6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -771,22 +771,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -796,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -818,10 +818,10 @@
         <v>9</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -840,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="P9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -862,10 +862,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="O11" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>46</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
